--- a/notebooks/assets/test_random_selection/RFpm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFpm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.811</v>
+        <v>1.23</v>
       </c>
       <c r="C2" t="n">
-        <v>1.023</v>
+        <v>0.903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12</v>
+        <v>0.988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.866</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.418</v>
+        <v>1.758</v>
       </c>
       <c r="C3" t="n">
-        <v>1.292</v>
+        <v>1.139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.888</v>
+        <v>0.744</v>
       </c>
       <c r="E3" t="n">
-        <v>1.532</v>
+        <v>1.337</v>
       </c>
       <c r="F3" t="n">
-        <v>1.08</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.4</v>
+        <v>3.18</v>
       </c>
       <c r="C4" t="n">
-        <v>1.816</v>
+        <v>1.307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.805</v>
+        <v>0.571</v>
       </c>
       <c r="E4" t="n">
-        <v>2.818</v>
+        <v>1.821</v>
       </c>
       <c r="F4" t="n">
-        <v>1.213</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.771</v>
+        <v>0.884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.746</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.591</v>
+        <v>0.722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.756</v>
+        <v>0.832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.845</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.798</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
         <v>6.556</v>
       </c>
       <c r="D6" t="n">
-        <v>2.111</v>
+        <v>2.11</v>
       </c>
       <c r="E6" t="n">
         <v>3.06</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.26</v>
+        <v>9.262</v>
       </c>
       <c r="C7" t="n">
-        <v>7.579</v>
+        <v>7.571</v>
       </c>
       <c r="D7" t="n">
-        <v>2.733</v>
+        <v>2.745</v>
       </c>
       <c r="E7" t="n">
-        <v>3.63</v>
+        <v>3.623</v>
       </c>
       <c r="F7" t="n">
-        <v>4.065</v>
+        <v>4.059</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.26900000000001</v>
+        <v>86.279</v>
       </c>
       <c r="C8" t="n">
-        <v>57.572</v>
+        <v>57.593</v>
       </c>
       <c r="D8" t="n">
-        <v>7.533</v>
+        <v>7.548</v>
       </c>
       <c r="E8" t="n">
         <v>13.266</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.063</v>
+        <v>-2.147</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.663</v>
+        <v>-7.492</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.826</v>
+        <v>-2.846</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.392</v>
+        <v>-0.258</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.186</v>
+        <v>-1.096</v>
       </c>
     </row>
   </sheetData>
